--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,74</t>
+          <t>-1,84; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,05</t>
+          <t>-2,34; 2,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,49</t>
+          <t>-2,4; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,51</t>
+          <t>-4,16; 2,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -1,98</t>
+          <t>-7,21; -1,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 4,95</t>
+          <t>-4,34; 4,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,67</t>
+          <t>-2,15; 1,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,56</t>
+          <t>-4,06; -0,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,8</t>
+          <t>-2,65; 2,97</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 161,94</t>
+          <t>-47,12; 146,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 114,51</t>
+          <t>-63,98; 115,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 266,78</t>
+          <t>-75,57; 266,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 55,73</t>
+          <t>-49,68; 43,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,54; -34,78</t>
+          <t>-84,67; -31,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 88,64</t>
+          <t>-56,8; 96,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 44,56</t>
+          <t>-38,8; 42,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,9; -11,38</t>
+          <t>-70,19; -11,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 74,88</t>
+          <t>-50,86; 80,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,0</t>
+          <t>-0,76; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,17</t>
+          <t>-2,38; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,32</t>
+          <t>-0,56; 6,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,12</t>
+          <t>-6,36; 1,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,38</t>
+          <t>-8,42; -1,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -4,37</t>
+          <t>-11,04; -4,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,85</t>
+          <t>-2,47; 1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,51</t>
+          <t>-4,47; -0,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,02</t>
+          <t>-4,55; -0,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 115,92</t>
+          <t>-16,09; 117,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 62,85</t>
+          <t>-44,61; 71,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 175,34</t>
+          <t>-9,9; 190,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 11,75</t>
+          <t>-45,76; 11,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -12,37</t>
+          <t>-60,71; -15,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,35; -42,77</t>
+          <t>-78,52; -42,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 27,11</t>
+          <t>-27,32; 26,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -6,29</t>
+          <t>-48,57; -5,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 1,69</t>
+          <t>-52,03; -1,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,87</t>
+          <t>-3,69; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,14</t>
+          <t>-6,1; 0,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,62</t>
+          <t>-5,27; 1,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,02</t>
+          <t>-4,69; 3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,35</t>
+          <t>-10,81; -3,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,85; -4,51</t>
+          <t>-11,89; -4,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,2</t>
+          <t>-3,4; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -2,71</t>
+          <t>-7,4; -2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -2,7</t>
+          <t>-7,38; -2,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 38,34</t>
+          <t>-31,86; 36,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 2,79</t>
+          <t>-52,31; 10,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 22,67</t>
+          <t>-47,26; 19,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 27,1</t>
+          <t>-23,68; 20,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,31; -21,74</t>
+          <t>-55,39; -22,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,47; -29,43</t>
+          <t>-59,83; -30,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 18,06</t>
+          <t>-21,99; 15,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,5; -21,23</t>
+          <t>-49,4; -21,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,77; -21,37</t>
+          <t>-49,23; -19,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,28</t>
+          <t>-2,28; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,65</t>
+          <t>0,66; 9,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,26</t>
+          <t>-2,75; 6,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 0,52</t>
+          <t>-9,97; 1,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -3,22</t>
+          <t>-13,59; -3,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -6,29</t>
+          <t>-14,92; -5,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,19</t>
+          <t>-4,72; 2,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,81</t>
+          <t>-4,98; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -1,0</t>
+          <t>-7,42; -0,77</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 58,08</t>
+          <t>-15,46; 63,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 88,29</t>
+          <t>4,14; 95,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 59,1</t>
+          <t>-18,24; 61,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 2,0</t>
+          <t>-32,44; 4,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; -13,03</t>
+          <t>-43,32; -14,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,23; -24,18</t>
+          <t>-48,29; -23,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 11,88</t>
+          <t>-20,99; 12,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 9,55</t>
+          <t>-21,62; 9,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,83; -4,92</t>
+          <t>-32,82; -3,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 1,74</t>
+          <t>-11,24; 2,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1,5</t>
+          <t>-10,0; 2,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,48</t>
+          <t>-7,36; 4,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 4,2</t>
+          <t>-8,99; 4,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 0,95</t>
+          <t>-11,39; 1,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -2,44</t>
+          <t>-13,3; -2,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 1,26</t>
+          <t>-8,01; 1,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,35</t>
+          <t>-9,21; -0,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -0,92</t>
+          <t>-9,04; -0,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 6,74</t>
+          <t>-35,2; 7,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 6,3</t>
+          <t>-31,49; 7,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 13,95</t>
+          <t>-22,9; 16,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 12,08</t>
+          <t>-21,23; 12,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 2,66</t>
+          <t>-26,31; 4,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -6,82</t>
+          <t>-30,2; -6,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 3,83</t>
+          <t>-21,71; 3,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -0,9</t>
+          <t>-24,91; -0,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -2,85</t>
+          <t>-24,12; -2,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 7,52</t>
+          <t>-5,45; 7,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -2,46</t>
+          <t>-13,94; -2,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,83; -3,79</t>
+          <t>-15,45; -4,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -0,4</t>
+          <t>-11,37; -0,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -3,55</t>
+          <t>-14,03; -3,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,4; -11,28</t>
+          <t>-33,0; -11,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,67</t>
+          <t>-7,75; 0,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -5,45</t>
+          <t>-12,94; -4,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,41; -10,3</t>
+          <t>-24,31; -10,19</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 17,46</t>
+          <t>-11,5; 17,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -5,67</t>
+          <t>-29,53; -5,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -9,1</t>
+          <t>-31,86; -11,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -0,53</t>
+          <t>-17,29; -1,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -6,12</t>
+          <t>-20,75; -5,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,8; -17,94</t>
+          <t>-50,62; -18,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,32</t>
+          <t>-13,06; 0,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -10,05</t>
+          <t>-22,48; -9,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -18,85</t>
+          <t>-42,4; -18,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,74; 2,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,6; 1,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,04</t>
+          <t>0,21; 3,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,14; 0,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-7,03; -2,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,2</t>
+          <t>-8,12; -3,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,86; 1,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,67; -0,88</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,09</t>
+          <t>-2,98; -0,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,39; 19,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-9,86; 12,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,64; 27,29</t>
+          <t>1,23; 26,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,77; 1,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,9; -9,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -11,8</t>
+          <t>-28,08; -11,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,1; 5,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,15; -4,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -0,48</t>
+          <t>-12,93; -0,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,57</t>
+          <t>-1,78; 2,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,06</t>
+          <t>-2,29; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,96</t>
+          <t>-2,34; 4,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,29</t>
+          <t>-4,1; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -1,84</t>
+          <t>-7,39; -2,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,66</t>
+          <t>-4,57; 4,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,66</t>
+          <t>-2,28; 1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -0,58</t>
+          <t>-4,06; -0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,97</t>
+          <t>-2,49; 2,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 146,02</t>
+          <t>-49,01; 140,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,98; 115,67</t>
+          <t>-61,16; 105,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 266,59</t>
+          <t>-74,35; 251,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 43,77</t>
+          <t>-50,95; 47,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,67; -31,46</t>
+          <t>-86,27; -38,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,8; 96,1</t>
+          <t>-60,35; 87,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 42,34</t>
+          <t>-39,53; 40,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,19; -11,18</t>
+          <t>-70,98; -12,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 80,32</t>
+          <t>-50,5; 71,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,07</t>
+          <t>-0,71; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,13</t>
+          <t>-2,4; 2,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 6,26</t>
+          <t>-0,52; 6,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,07</t>
+          <t>-6,06; 0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,69</t>
+          <t>-8,44; -1,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -4,17</t>
+          <t>-10,48; -4,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,86</t>
+          <t>-2,46; 1,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -0,45</t>
+          <t>-4,15; -0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -0,13</t>
+          <t>-4,57; -0,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 117,39</t>
+          <t>-12,83; 118,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 71,08</t>
+          <t>-44,26; 65,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 190,29</t>
+          <t>-13,8; 178,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 11,37</t>
+          <t>-43,76; 10,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,71; -15,68</t>
+          <t>-62,45; -14,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -42,08</t>
+          <t>-77,62; -42,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 26,32</t>
+          <t>-28,09; 27,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,57; -5,33</t>
+          <t>-46,82; -2,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -1,49</t>
+          <t>-52,73; 1,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,75</t>
+          <t>-3,74; 2,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 0,52</t>
+          <t>-6,0; 0,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,48</t>
+          <t>-5,29; 1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,09</t>
+          <t>-4,54; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -3,49</t>
+          <t>-10,92; -3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -4,63</t>
+          <t>-11,5; -4,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,91</t>
+          <t>-3,19; 2,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,69</t>
+          <t>-7,44; -2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -2,56</t>
+          <t>-7,41; -2,41</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 36,05</t>
+          <t>-32,91; 37,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 10,25</t>
+          <t>-53,32; 2,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 19,41</t>
+          <t>-46,51; 23,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 20,22</t>
+          <t>-23,87; 23,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -22,51</t>
+          <t>-56,05; -20,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,83; -30,0</t>
+          <t>-58,91; -27,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 15,32</t>
+          <t>-21,0; 17,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,4; -21,54</t>
+          <t>-49,54; -21,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,23; -19,72</t>
+          <t>-49,07; -19,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,72</t>
+          <t>-2,17; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 9,85</t>
+          <t>1,1; 9,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,49</t>
+          <t>-2,97; 6,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 1,16</t>
+          <t>-10,3; 0,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -3,59</t>
+          <t>-13,89; -3,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -5,98</t>
+          <t>-15,01; -6,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,31</t>
+          <t>-4,56; 2,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,7</t>
+          <t>-4,91; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,77</t>
+          <t>-7,74; -1,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 63,56</t>
+          <t>-14,81; 58,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 95,47</t>
+          <t>6,61; 90,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 61,02</t>
+          <t>-19,72; 60,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 4,6</t>
+          <t>-32,51; 2,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,32; -14,23</t>
+          <t>-44,6; -12,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,29; -23,81</t>
+          <t>-47,93; -24,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 12,54</t>
+          <t>-20,54; 13,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 9,2</t>
+          <t>-21,89; 9,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,82; -3,92</t>
+          <t>-34,15; -6,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,04</t>
+          <t>-10,19; 2,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 2,01</t>
+          <t>-10,63; 1,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,15</t>
+          <t>-7,42; 3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 4,77</t>
+          <t>-8,94; 3,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 1,52</t>
+          <t>-11,38; 1,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -2,37</t>
+          <t>-13,53; -2,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,29</t>
+          <t>-7,9; 1,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,11</t>
+          <t>-9,23; -0,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -0,83</t>
+          <t>-8,64; -0,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 7,39</t>
+          <t>-32,49; 8,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 7,6</t>
+          <t>-33,11; 5,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 16,13</t>
+          <t>-23,21; 15,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 12,4</t>
+          <t>-20,48; 10,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 4,24</t>
+          <t>-26,16; 3,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,2; -6,64</t>
+          <t>-30,63; -5,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 3,95</t>
+          <t>-21,41; 4,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -0,15</t>
+          <t>-25,24; -0,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -2,71</t>
+          <t>-23,12; -1,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 7,38</t>
+          <t>-5,53; 7,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -2,32</t>
+          <t>-13,98; -3,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,45; -4,93</t>
+          <t>-15,52; -4,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -0,67</t>
+          <t>-11,06; -0,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -3,58</t>
+          <t>-14,67; -3,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -11,44</t>
+          <t>-32,44; -11,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 0,54</t>
+          <t>-7,24; 0,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -4,97</t>
+          <t>-12,43; -4,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,31; -10,19</t>
+          <t>-24,3; -10,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 17,44</t>
+          <t>-11,72; 16,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,53; -5,84</t>
+          <t>-28,94; -7,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,86; -11,79</t>
+          <t>-32,02; -11,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -1,14</t>
+          <t>-16,56; -0,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -5,66</t>
+          <t>-22,27; -5,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,62; -18,21</t>
+          <t>-49,61; -17,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 0,99</t>
+          <t>-12,17; 1,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,48; -9,34</t>
+          <t>-21,51; -8,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -18,8</t>
+          <t>-42,43; -18,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,91</t>
+          <t>-0,98; 2,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,94</t>
+          <t>-1,62; 1,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,94</t>
+          <t>0,11; 3,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,35</t>
+          <t>-4,03; 0,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -2,67</t>
+          <t>-6,97; -2,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -3,18</t>
+          <t>-8,15; -3,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,12</t>
+          <t>-1,97; 0,84</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,88</t>
+          <t>-3,75; -0,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,04</t>
+          <t>-3,18; -0,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 19,6</t>
+          <t>-5,96; 18,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 12,97</t>
+          <t>-9,89; 12,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,23; 26,45</t>
+          <t>0,64; 26,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 1,3</t>
+          <t>-13,45; 1,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -9,71</t>
+          <t>-23,37; -9,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-28,08; -11,71</t>
+          <t>-27,48; -11,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,21</t>
+          <t>-8,47; 3,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -4,06</t>
+          <t>-16,46; -4,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -0,21</t>
+          <t>-13,78; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,66</t>
+          <t>-1,69; 2,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,91</t>
+          <t>-2,32; 2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,83</t>
+          <t>-2,38; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,26</t>
+          <t>-4,03; 2,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -2,08</t>
+          <t>-7,47; -1,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,41</t>
+          <t>-4,53; 4,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,58</t>
+          <t>-2,26; 1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -0,59</t>
+          <t>-4,0; -0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,93</t>
+          <t>-2,7; 2,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,01; 140,03</t>
+          <t>-44,19; 161,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 105,45</t>
+          <t>-60,27; 114,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 251,47</t>
+          <t>-74,07; 266,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 47,35</t>
+          <t>-50,28; 55,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,27; -38,29</t>
+          <t>-86,54; -34,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 87,77</t>
+          <t>-59,09; 88,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 40,28</t>
+          <t>-39,57; 44,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -12,25</t>
+          <t>-70,9; -11,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 71,32</t>
+          <t>-50,95; 74,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,01</t>
+          <t>-0,76; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,24</t>
+          <t>-2,4; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,17</t>
+          <t>-0,66; 6,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,92</t>
+          <t>-6,14; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,67</t>
+          <t>-8,44; -1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -4,45</t>
+          <t>-10,7; -4,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,9</t>
+          <t>-2,46; 1,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,24</t>
+          <t>-4,54; -0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,06</t>
+          <t>-4,54; -0,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 118,86</t>
+          <t>-15,49; 115,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 65,02</t>
+          <t>-45,66; 62,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 178,44</t>
+          <t>-14,02; 175,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 10,11</t>
+          <t>-44,9; 11,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -14,13</t>
+          <t>-60,67; -12,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -42,0</t>
+          <t>-78,35; -42,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 27,48</t>
+          <t>-27,25; 27,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; -2,82</t>
+          <t>-49,96; -6,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,73; 1,95</t>
+          <t>-50,95; 1,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,91</t>
+          <t>-3,73; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,14</t>
+          <t>-6,04; 0,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,86</t>
+          <t>-5,27; 1,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,6</t>
+          <t>-4,4; 4,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,01</t>
+          <t>-11,16; -3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -4,24</t>
+          <t>-11,85; -4,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,08</t>
+          <t>-3,3; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -2,69</t>
+          <t>-7,39; -2,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -2,41</t>
+          <t>-7,63; -2,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 37,76</t>
+          <t>-33,02; 38,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 2,64</t>
+          <t>-51,88; 2,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 23,85</t>
+          <t>-45,69; 22,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 23,09</t>
+          <t>-23,13; 27,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -20,02</t>
+          <t>-56,31; -21,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,91; -27,65</t>
+          <t>-59,47; -29,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 17,44</t>
+          <t>-21,79; 18,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -21,57</t>
+          <t>-49,5; -21,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; -19,24</t>
+          <t>-49,77; -21,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,32</t>
+          <t>-3,18; 6,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,69</t>
+          <t>0,32; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,25</t>
+          <t>-3,48; 6,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 0,5</t>
+          <t>-9,64; 0,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -3,13</t>
+          <t>-13,04; -3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,01; -6,04</t>
+          <t>-15,2; -6,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 2,57</t>
+          <t>-4,82; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,81</t>
+          <t>-4,99; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -1,21</t>
+          <t>-7,73; -1,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 58,2</t>
+          <t>-21,21; 58,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 90,44</t>
+          <t>1,7; 88,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 60,15</t>
+          <t>-22,5; 59,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 2,22</t>
+          <t>-30,97; 2,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -12,05</t>
+          <t>-42,71; -13,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -24,26</t>
+          <t>-48,23; -24,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 13,78</t>
+          <t>-21,52; 11,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 9,17</t>
+          <t>-22,73; 9,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,15; -6,65</t>
+          <t>-33,83; -4,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 2,33</t>
+          <t>-10,67; 1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 1,65</t>
+          <t>-10,14; 1,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,94</t>
+          <t>-7,48; 3,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 3,94</t>
+          <t>-9,14; 4,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 1,4</t>
+          <t>-12,47; 0,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -2,12</t>
+          <t>-13,19; -2,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 1,45</t>
+          <t>-7,91; 1,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,4</t>
+          <t>-9,7; -0,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -0,73</t>
+          <t>-9,02; -0,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 8,56</t>
+          <t>-33,07; 6,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 5,99</t>
+          <t>-31,92; 6,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 15,96</t>
+          <t>-23,79; 13,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 10,67</t>
+          <t>-20,88; 12,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 3,88</t>
+          <t>-27,97; 2,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -5,85</t>
+          <t>-29,99; -6,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 4,4</t>
+          <t>-21,25; 3,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -0,94</t>
+          <t>-25,6; -0,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -1,99</t>
+          <t>-24,44; -2,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 7,27</t>
+          <t>-5,69; 7,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -3,1</t>
+          <t>-13,78; -2,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -4,88</t>
+          <t>-14,83; -3,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -0,3</t>
+          <t>-10,78; -0,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -3,32</t>
+          <t>-14,43; -3,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -11,05</t>
+          <t>-32,4; -11,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,62</t>
+          <t>-7,41; 0,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -4,54</t>
+          <t>-13,02; -5,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -10,13</t>
+          <t>-22,41; -10,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 16,89</t>
+          <t>-11,66; 17,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -7,11</t>
+          <t>-28,84; -5,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,02; -11,95</t>
+          <t>-30,78; -9,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -0,49</t>
+          <t>-16,33; -0,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -5,41</t>
+          <t>-21,86; -6,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,61; -17,81</t>
+          <t>-47,8; -17,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 1,18</t>
+          <t>-12,53; 1,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,51; -8,26</t>
+          <t>-22,37; -10,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,43; -18,64</t>
+          <t>-40,06; -18,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,72</t>
+          <t>-1,0; 2,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,79</t>
+          <t>-1,78; 1,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,91</t>
+          <t>0,11; 4,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,33</t>
+          <t>-4,16; 0,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -2,48</t>
+          <t>-7,0; -2,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -3,06</t>
+          <t>-8,05; -3,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,84</t>
+          <t>-1,94; 1,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,95</t>
+          <t>-3,82; -0,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,05</t>
+          <t>-3,11; -0,09</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 18,6</t>
+          <t>-6,15; 19,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 12,21</t>
+          <t>-10,95; 11,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,64; 26,39</t>
+          <t>0,64; 27,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 1,25</t>
+          <t>-13,91; 0,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -9,13</t>
+          <t>-23,54; -9,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -11,29</t>
+          <t>-27,56; -11,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,96</t>
+          <t>-8,47; 5,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -4,56</t>
+          <t>-16,56; -4,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -0,25</t>
+          <t>-13,59; -0,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,49</t>
+          <t>-2,36; 5,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 4,95</t>
+          <t>-4,06; 6,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,8</t>
+          <t>-2,42; 3,54</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 266,78</t>
+          <t>-74,6; 267,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 88,64</t>
+          <t>-53,34; 118,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 74,88</t>
+          <t>-47,48; 91,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,32</t>
+          <t>-0,41; 6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -4,37</t>
+          <t>-11,2; -4,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,02</t>
+          <t>-4,71; 0,09</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-64,53%</t>
+          <t>-67,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,19%</t>
+          <t>-32,71%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 175,34</t>
+          <t>-12,26; 181,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,35; -42,77</t>
+          <t>-81,62; -45,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 1,69</t>
+          <t>-53,8; 0,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-5,16</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,62</t>
+          <t>-5,26; 1,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,85; -4,51</t>
+          <t>-12,44; -4,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -2,7</t>
+          <t>-7,83; -2,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>-18,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,67%</t>
+          <t>-47,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-36,72%</t>
+          <t>-37,81%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 22,67</t>
+          <t>-45,37; 24,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,47; -29,43</t>
+          <t>-63,65; -31,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,77; -21,37</t>
+          <t>-52,31; -22,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,43</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-6,28</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,26</t>
+          <t>-11,02; 4,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -6,29</t>
+          <t>-15,58; -6,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -1,0</t>
+          <t>-12,54; -2,1</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,08%</t>
+          <t>-38,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>-30,56%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 59,1</t>
+          <t>-66,02; 41,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,23; -24,18</t>
+          <t>-50,23; -24,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,83; -4,92</t>
+          <t>-58,26; -11,22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,74</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,48</t>
+          <t>-7,21; 3,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -2,44</t>
+          <t>-13,32; -2,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -0,92</t>
+          <t>-9,01; -0,76</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-18,84%</t>
+          <t>-19,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>-13,67%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 13,95</t>
+          <t>-22,7; 15,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -6,82</t>
+          <t>-30,13; -7,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -2,85</t>
+          <t>-24,15; -2,53</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-18,48</t>
+          <t>-31,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>-21,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 7,52</t>
+          <t>-8,22; 7,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -2,46</t>
+          <t>-14,93; -0,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,83; -3,79</t>
+          <t>-16,45; -3,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -0,4</t>
+          <t>-17,4; -3,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -3,55</t>
+          <t>-19,2; -4,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,4; -11,28</t>
+          <t>-50,49; -16,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,67</t>
+          <t>-11,22; -0,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -5,45</t>
+          <t>-15,5; -4,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,41; -10,3</t>
+          <t>-38,14; -13,11</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-21,88%</t>
+          <t>-26,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>-17,95%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-20,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>-20,83%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-44,25%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 17,46</t>
+          <t>-20,43; 23,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -5,67</t>
+          <t>-36,09; -0,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -9,1</t>
+          <t>-40,08; -9,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -0,53</t>
+          <t>-27,87; -4,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -6,12</t>
+          <t>-31,6; -7,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,8; -17,94</t>
+          <t>-82,84; -27,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,32</t>
+          <t>-21,91; -0,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -10,05</t>
+          <t>-30,21; -9,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -18,85</t>
+          <t>-74,67; -27,34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-9,93</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-7,89; 11,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-19,23; -0,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,04</t>
+          <t>-18,34; -2,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-9,72; 4,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-14,21; 1,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,2</t>
+          <t>-15,62; -2,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-6,81; 4,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-13,27; -1,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,09</t>
+          <t>-15,01; -4,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-18,18%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>-13,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>-12,44%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-15,52%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-12,84; 22,2</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-31,65; -1,71</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-31,48; -6,36</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-13,34; 6,53</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-19,44; 1,66</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-21,11; -4,36</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 8,01</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; -2,73</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-22,34; -7,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-6,55</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 2,87</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 1,72</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 3,08</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 0,07</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; -2,57</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-10,95; -4,06</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 1,08</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; -0,96</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; -1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-16,62%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-22,86%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-12,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-6,15; 19,26</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-10,95; 11,33</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 27,29</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 20,43</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-13,91; 0,33</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-23,54; -9,4</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; -11,8</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-37,43; -14,69</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-8,47; 5,0</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-16,56; -4,48</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; -0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-24,56; -4,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,74</t>
+          <t>-1,99; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,05</t>
+          <t>-2,27; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,54</t>
+          <t>-2,44; 4,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,51</t>
+          <t>-3,81; 2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -1,98</t>
+          <t>-7,2; -1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 6,99</t>
+          <t>-4,11; 6,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,67</t>
+          <t>-2,08; 1,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,56</t>
+          <t>-4,11; -0,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,54</t>
+          <t>-2,57; 3,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 161,94</t>
+          <t>-50,74; 132,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 114,51</t>
+          <t>-59,24; 105,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 267,09</t>
+          <t>-73,65; 286,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 55,73</t>
+          <t>-47,9; 52,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,54; -34,78</t>
+          <t>-85,67; -32,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 118,18</t>
+          <t>-54,05; 128,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 44,56</t>
+          <t>-38,38; 48,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,9; -11,38</t>
+          <t>-71,05; -13,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 91,03</t>
+          <t>-49,48; 90,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,0</t>
+          <t>-0,67; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,17</t>
+          <t>-2,41; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,74</t>
+          <t>-0,51; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,12</t>
+          <t>-6,25; 1,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,38</t>
+          <t>-8,6; -1,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -4,69</t>
+          <t>-11,32; -4,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,85</t>
+          <t>-2,5; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,51</t>
+          <t>-4,45; -0,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,09</t>
+          <t>-4,88; -0,07</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 115,92</t>
+          <t>-16,96; 118,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 62,85</t>
+          <t>-44,87; 61,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 181,14</t>
+          <t>-13,19; 176,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 11,75</t>
+          <t>-45,38; 11,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -12,37</t>
+          <t>-61,76; -17,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,62; -45,46</t>
+          <t>-82,46; -44,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 27,11</t>
+          <t>-27,85; 27,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -6,29</t>
+          <t>-49,08; -4,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 0,14</t>
+          <t>-55,69; -1,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,87</t>
+          <t>-3,97; 2,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,14</t>
+          <t>-5,92; 0,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,69</t>
+          <t>-5,11; 2,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,02</t>
+          <t>-4,95; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,35</t>
+          <t>-10,81; -3,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -4,84</t>
+          <t>-12,0; -4,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,2</t>
+          <t>-3,36; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -2,71</t>
+          <t>-7,69; -2,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -2,82</t>
+          <t>-7,83; -2,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 38,34</t>
+          <t>-33,7; 37,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 2,79</t>
+          <t>-51,83; 6,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 24,34</t>
+          <t>-44,72; 29,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 27,1</t>
+          <t>-25,17; 21,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,31; -21,74</t>
+          <t>-55,72; -22,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,65; -31,43</t>
+          <t>-61,3; -29,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 18,06</t>
+          <t>-22,01; 16,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,5; -21,23</t>
+          <t>-50,44; -21,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; -22,62</t>
+          <t>-52,39; -21,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,28</t>
+          <t>-2,38; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,65</t>
+          <t>0,55; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 4,73</t>
+          <t>-9,75; 4,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 0,52</t>
+          <t>-10,09; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -3,22</t>
+          <t>-12,71; -2,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -6,44</t>
+          <t>-15,74; -6,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,19</t>
+          <t>-4,64; 2,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,81</t>
+          <t>-4,72; 2,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -2,1</t>
+          <t>-12,51; -2,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 58,08</t>
+          <t>-15,16; 60,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 88,29</t>
+          <t>3,82; 87,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 41,13</t>
+          <t>-65,14; 37,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 2,0</t>
+          <t>-32,56; 3,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; -13,03</t>
+          <t>-41,74; -11,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,23; -24,58</t>
+          <t>-50,02; -25,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 11,88</t>
+          <t>-20,97; 11,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 9,55</t>
+          <t>-21,42; 11,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -11,22</t>
+          <t>-58,62; -13,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 1,74</t>
+          <t>-10,81; 2,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1,5</t>
+          <t>-10,39; 2,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,85</t>
+          <t>-7,14; 4,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 4,2</t>
+          <t>-10,02; 4,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 0,95</t>
+          <t>-11,1; 2,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -2,5</t>
+          <t>-13,79; -1,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 1,26</t>
+          <t>-8,15; 1,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,35</t>
+          <t>-9,58; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -0,76</t>
+          <t>-8,77; -0,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 6,74</t>
+          <t>-34,2; 8,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 6,3</t>
+          <t>-32,23; 8,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 15,41</t>
+          <t>-21,25; 18,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 12,08</t>
+          <t>-22,66; 11,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 2,66</t>
+          <t>-26,05; 5,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -7,03</t>
+          <t>-30,84; -4,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 3,83</t>
+          <t>-21,86; 4,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -0,9</t>
+          <t>-25,53; -0,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,15; -2,53</t>
+          <t>-23,57; -1,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 7,88</t>
+          <t>-9,05; 6,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,93; -0,23</t>
+          <t>-15,14; 0,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -3,15</t>
+          <t>-16,91; -3,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,4; -3,13</t>
+          <t>-17,9; -2,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -4,0</t>
+          <t>-19,24; -4,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-50,49; -16,29</t>
+          <t>-49,09; -16,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -0,26</t>
+          <t>-11,4; -0,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -4,39</t>
+          <t>-15,33; -4,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -13,11</t>
+          <t>-36,86; -12,58</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 23,7</t>
+          <t>-21,44; 19,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,09; -0,63</t>
+          <t>-36,1; 0,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,08; -9,43</t>
+          <t>-40,44; -10,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,87; -4,28</t>
+          <t>-28,73; -4,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -7,59</t>
+          <t>-31,29; -7,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,84; -27,87</t>
+          <t>-81,15; -27,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -0,5</t>
+          <t>-22,25; -0,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,21; -9,71</t>
+          <t>-29,94; -9,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,67; -27,34</t>
+          <t>-71,91; -26,56</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 11,01</t>
+          <t>-6,45; 11,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -0,79</t>
+          <t>-18,17; -1,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -2,87</t>
+          <t>-17,91; -3,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 4,26</t>
+          <t>-9,96; 4,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 1,06</t>
+          <t>-14,19; 1,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -2,78</t>
+          <t>-15,24; -2,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,77</t>
+          <t>-6,15; 5,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -1,69</t>
+          <t>-13,5; -1,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,01; -4,42</t>
+          <t>-14,68; -4,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 22,2</t>
+          <t>-10,83; 23,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,65; -1,71</t>
+          <t>-30,63; -2,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,48; -6,36</t>
+          <t>-29,78; -6,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 6,53</t>
+          <t>-13,32; 7,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 1,66</t>
+          <t>-19,43; 2,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -4,36</t>
+          <t>-20,63; -4,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 8,01</t>
+          <t>-9,26; 8,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,87; -2,73</t>
+          <t>-20,0; -2,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -7,26</t>
+          <t>-21,84; -7,16</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,77; 2,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,77; 1,82</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,08</t>
+          <t>-2,55; 2,91</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,03; 0,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-6,81; -2,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -4,06</t>
+          <t>-10,94; -4,09</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,92; 0,84</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,87; -1,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,1</t>
+          <t>-5,39; -1,11</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,86; 19,81</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-10,43; 12,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 20,43</t>
+          <t>-16,45; 19,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,6; 1,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,1; -9,44</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -14,69</t>
+          <t>-37,41; -14,8</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,28; 3,91</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,73; -4,85</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -4,99</t>
+          <t>-23,76; -4,93</t>
         </is>
       </c>
     </row>
